--- a/2020-05-06_ch2-lyrics.xlsx
+++ b/2020-05-06_ch2-lyrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcrawford52\Documents\CASA Quant Curriculum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568E961D-00AE-4107-8E95-271478BE81F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7B79E2-5C5A-45BE-9802-0897A9CC836D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A187B0CD-93F8-4A9D-BA32-6EB90BC3E79E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="172">
   <si>
     <t>21 Savage</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>Juvenile</t>
-  </si>
-  <si>
-    <t>1999s</t>
   </si>
   <si>
     <t>K-Rino</t>
@@ -915,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15231658-6583-4E1C-B3E8-B8D9C15B6D12}">
   <dimension ref="A1:F160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,22 +928,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,7 +960,7 @@
         <v>2988</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,7 +977,7 @@
         <v>4148</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>0</v>
@@ -1000,7 +997,7 @@
         <v>3970</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>0</v>
@@ -1020,7 +1017,7 @@
         <v>3591</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1037,7 +1034,7 @@
         <v>4534</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1054,7 +1051,7 @@
         <v>6186</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>0</v>
@@ -1074,7 +1071,7 @@
         <v>7392</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,7 +1088,7 @@
         <v>4414</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,7 +1105,7 @@
         <v>3851</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1125,7 +1122,7 @@
         <v>4829</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1136,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="2" t="b">
         <v>0</v>
@@ -1145,7 +1142,7 @@
         <v>5090</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1156,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="2" t="b">
         <v>0</v>
@@ -1165,7 +1162,7 @@
         <v>4768</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1182,7 +1179,7 @@
         <v>3823</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,7 +1196,7 @@
         <v>4011</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1216,7 +1213,7 @@
         <v>3563</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1227,7 +1224,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D17" s="2" t="b">
         <v>0</v>
@@ -1236,7 +1233,7 @@
         <v>4313</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1247,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" s="2" t="b">
         <v>0</v>
@@ -1256,7 +1253,7 @@
         <v>5480</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1273,7 +1270,7 @@
         <v>3748</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1284,7 +1281,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20" s="2" t="b">
         <v>0</v>
@@ -1293,7 +1290,7 @@
         <v>3219</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1310,7 +1307,7 @@
         <v>2738</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D22" s="2" t="b">
         <v>0</v>
@@ -1330,7 +1327,7 @@
         <v>4609</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,7 +1344,7 @@
         <v>3924</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,7 +1355,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D24" s="2" t="b">
         <v>0</v>
@@ -1367,7 +1364,7 @@
         <v>4700</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,7 +1381,7 @@
         <v>3875</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,7 +1398,7 @@
         <v>7324</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1412,7 +1409,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="2" t="b">
         <v>0</v>
@@ -1421,7 +1418,7 @@
         <v>4839</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,7 +1429,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" s="2" t="b">
         <v>0</v>
@@ -1441,7 +1438,7 @@
         <v>4406</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1452,7 +1449,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D29" s="2" t="b">
         <v>0</v>
@@ -1461,7 +1458,7 @@
         <v>5991</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,7 +1475,7 @@
         <v>4465</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1489,7 +1486,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D31" s="2" t="b">
         <v>0</v>
@@ -1498,7 +1495,7 @@
         <v>4974</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1509,7 +1506,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" s="2" t="b">
         <v>0</v>
@@ -1518,7 +1515,7 @@
         <v>5971</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1535,7 +1532,7 @@
         <v>3965</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1546,7 +1543,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D34" s="2" t="b">
         <v>0</v>
@@ -1555,7 +1552,7 @@
         <v>4568</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,7 +1563,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D35" s="2" t="b">
         <v>0</v>
@@ -1575,7 +1572,7 @@
         <v>5005</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1586,7 +1583,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D36" s="2" t="b">
         <v>0</v>
@@ -1595,7 +1592,7 @@
         <v>4933</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1612,7 +1609,7 @@
         <v>4282</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1629,7 +1626,7 @@
         <v>6135</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,7 +1643,7 @@
         <v>4426</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1663,7 +1660,7 @@
         <v>3863</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,7 +1671,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D41" s="2" t="b">
         <v>0</v>
@@ -1683,7 +1680,7 @@
         <v>2936</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1700,7 +1697,7 @@
         <v>3347</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1711,7 +1708,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D43" s="2" t="b">
         <v>0</v>
@@ -1720,7 +1717,7 @@
         <v>5207</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1731,7 +1728,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D44" s="2" t="b">
         <v>0</v>
@@ -1740,7 +1737,7 @@
         <v>4494</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1765,7 +1762,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D46" s="2" t="b">
         <v>0</v>
@@ -1774,7 +1771,7 @@
         <v>4686</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,7 +1788,7 @@
         <v>4879</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,7 +1819,7 @@
         <v>3321</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1839,7 +1836,7 @@
         <v>3468</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1850,7 +1847,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D51" s="2" t="b">
         <v>0</v>
@@ -1859,7 +1856,7 @@
         <v>4416</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,7 +1867,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="2" t="b">
         <v>0</v>
@@ -1879,7 +1876,7 @@
         <v>4794</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1890,7 +1887,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="2" t="b">
         <v>0</v>
@@ -1899,7 +1896,7 @@
         <v>4180</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1910,7 +1907,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="2" t="b">
         <v>1</v>
@@ -1919,7 +1916,7 @@
         <v>5774</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1930,7 +1927,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="2" t="b">
         <v>0</v>
@@ -1939,7 +1936,7 @@
         <v>4814</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1950,7 +1947,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="2" t="b">
         <v>0</v>
@@ -1959,7 +1956,7 @@
         <v>3885</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1970,7 +1967,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D57" s="2" t="b">
         <v>1</v>
@@ -1979,7 +1976,7 @@
         <v>6426</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1996,7 +1993,7 @@
         <v>3898</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2007,7 +2004,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D59" s="2" t="b">
         <v>0</v>
@@ -2016,7 +2013,7 @@
         <v>4371</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2027,7 +2024,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D60" s="2" t="b">
         <v>0</v>
@@ -2036,7 +2033,7 @@
         <v>4431</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2053,7 +2050,7 @@
         <v>5841</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,7 +2061,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D62" s="2" t="b">
         <v>0</v>
@@ -2073,7 +2070,7 @@
         <v>4146</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2090,7 +2087,7 @@
         <v>3911</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2101,7 +2098,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D64" s="2" t="b">
         <v>0</v>
@@ -2110,7 +2107,7 @@
         <v>4108</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2127,7 +2124,7 @@
         <v>4163</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2138,7 +2135,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D66" s="2" t="b">
         <v>0</v>
@@ -2147,7 +2144,7 @@
         <v>4506</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,7 +2161,7 @@
         <v>5835</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2181,7 +2178,7 @@
         <v>6336</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2198,7 +2195,7 @@
         <v>4523</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2215,7 +2212,7 @@
         <v>4871</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2232,7 +2229,7 @@
         <v>3675</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2249,7 +2246,7 @@
         <v>3275</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2260,7 +2257,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D73" s="2" t="b">
         <v>0</v>
@@ -2269,15 +2266,15 @@
         <v>3630</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D74" s="2" t="b">
         <v>0</v>
@@ -2286,7 +2283,7 @@
         <v>4900</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2294,7 +2291,7 @@
         <v>2010</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="2" t="b">
         <v>0</v>
@@ -2303,7 +2300,7 @@
         <v>5107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2311,7 +2308,7 @@
         <v>2000</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="2" t="b">
         <v>0</v>
@@ -2320,7 +2317,7 @@
         <v>4144</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2328,10 +2325,10 @@
         <v>2000</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D77" s="2" t="b">
         <v>0</v>
@@ -2340,7 +2337,7 @@
         <v>3982</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2348,7 +2345,7 @@
         <v>2010</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="2" t="b">
         <v>0</v>
@@ -2357,7 +2354,7 @@
         <v>4013</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2365,7 +2362,7 @@
         <v>2000</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="2" t="b">
         <v>0</v>
@@ -2374,7 +2371,7 @@
         <v>4318</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2382,7 +2379,7 @@
         <v>2010</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="2" t="b">
         <v>0</v>
@@ -2391,7 +2388,7 @@
         <v>3318</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2399,7 +2396,7 @@
         <v>2010</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="2" t="b">
         <v>0</v>
@@ -2408,7 +2405,7 @@
         <v>3055</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2416,10 +2413,10 @@
         <v>2000</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D82" s="2" t="b">
         <v>1</v>
@@ -2428,7 +2425,7 @@
         <v>5737</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2436,7 +2433,7 @@
         <v>2010</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D83" s="2" t="b">
         <v>0</v>
@@ -2445,7 +2442,7 @@
         <v>3197</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2453,10 +2450,10 @@
         <v>1990</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D84" s="2" t="b">
         <v>0</v>
@@ -2465,7 +2462,7 @@
         <v>5394</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2473,10 +2470,10 @@
         <v>1990</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D85" s="2" t="b">
         <v>0</v>
@@ -2485,7 +2482,7 @@
         <v>6238</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2493,10 +2490,10 @@
         <v>1990</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D86" s="2" t="b">
         <v>0</v>
@@ -2505,7 +2502,7 @@
         <v>4585</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2513,7 +2510,7 @@
         <v>2000</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" s="2" t="b">
         <v>0</v>
@@ -2522,7 +2519,7 @@
         <v>3687</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2530,10 +2527,10 @@
         <v>2010</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D88" s="2" t="b">
         <v>0</v>
@@ -2542,7 +2539,7 @@
         <v>3724</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2550,7 +2547,7 @@
         <v>2010</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="2" t="b">
         <v>0</v>
@@ -2559,7 +2556,7 @@
         <v>2762</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2567,7 +2564,7 @@
         <v>2010</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="2" t="b">
         <v>0</v>
@@ -2576,7 +2573,7 @@
         <v>2988</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2584,10 +2581,10 @@
         <v>2000</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D91" s="2" t="b">
         <v>0</v>
@@ -2596,7 +2593,7 @@
         <v>4474</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2604,7 +2601,7 @@
         <v>2010</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="2" t="b">
         <v>0</v>
@@ -2613,7 +2610,7 @@
         <v>2556</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2621,10 +2618,10 @@
         <v>2000</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D93" s="2" t="b">
         <v>0</v>
@@ -2633,7 +2630,7 @@
         <v>3486</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2641,7 +2638,7 @@
         <v>2010</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94" s="2" t="b">
         <v>0</v>
@@ -2650,7 +2647,7 @@
         <v>3161</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2658,10 +2655,10 @@
         <v>1980</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D95" s="2" t="b">
         <v>0</v>
@@ -2670,7 +2667,7 @@
         <v>4743</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2678,7 +2675,7 @@
         <v>2010</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D96" s="2" t="b">
         <v>0</v>
@@ -2687,7 +2684,7 @@
         <v>3281</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2695,10 +2692,10 @@
         <v>2000</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D97" s="2" t="b">
         <v>0</v>
@@ -2707,7 +2704,7 @@
         <v>4806</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,10 +2712,10 @@
         <v>2000</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D98" s="2" t="b">
         <v>0</v>
@@ -2727,7 +2724,7 @@
         <v>4439</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2735,7 +2732,7 @@
         <v>2010</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D99" s="2" t="b">
         <v>0</v>
@@ -2744,7 +2741,7 @@
         <v>4246</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2752,7 +2749,7 @@
         <v>1990</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D100" s="2" t="b">
         <v>0</v>
@@ -2761,7 +2758,7 @@
         <v>5039</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2769,7 +2766,7 @@
         <v>2010</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D101" s="2" t="b">
         <v>0</v>
@@ -2778,7 +2775,7 @@
         <v>3690</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2786,10 +2783,10 @@
         <v>1990</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D102" s="2" t="b">
         <v>0</v>
@@ -2798,7 +2795,7 @@
         <v>3612</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2806,7 +2803,7 @@
         <v>1990</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D103" s="2" t="b">
         <v>0</v>
@@ -2820,7 +2817,7 @@
         <v>2010</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D104" s="2" t="b">
         <v>0</v>
@@ -2829,7 +2826,7 @@
         <v>3454</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2837,10 +2834,10 @@
         <v>1990</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D105" s="2" t="b">
         <v>1</v>
@@ -2849,7 +2846,7 @@
         <v>4951</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2857,10 +2854,10 @@
         <v>2000</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D106" s="2" t="b">
         <v>0</v>
@@ -2869,7 +2866,7 @@
         <v>5204</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2877,7 +2874,7 @@
         <v>2010</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D107" s="2" t="b">
         <v>0</v>
@@ -2886,7 +2883,7 @@
         <v>3193</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2894,10 +2891,10 @@
         <v>2000</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D108" s="2" t="b">
         <v>0</v>
@@ -2906,7 +2903,7 @@
         <v>3874</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2914,10 +2911,10 @@
         <v>1990</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D109" s="2" t="b">
         <v>0</v>
@@ -2926,7 +2923,7 @@
         <v>4756</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,10 +2931,10 @@
         <v>2000</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D110" s="2" t="b">
         <v>0</v>
@@ -2946,7 +2943,7 @@
         <v>4729</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2954,7 +2951,7 @@
         <v>2000</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D111" s="2" t="b">
         <v>0</v>
@@ -2963,7 +2960,7 @@
         <v>4723</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,10 +2968,10 @@
         <v>1990</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D112" s="2" t="b">
         <v>0</v>
@@ -2983,7 +2980,7 @@
         <v>5096</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2991,10 +2988,10 @@
         <v>2000</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D113" s="2" t="b">
         <v>0</v>
@@ -3003,7 +3000,7 @@
         <v>4413</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3011,7 +3008,7 @@
         <v>2010</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D114" s="2" t="b">
         <v>0</v>
@@ -3020,7 +3017,7 @@
         <v>2472</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3028,10 +3025,10 @@
         <v>2010</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D115" s="2" t="b">
         <v>0</v>
@@ -3040,7 +3037,7 @@
         <v>4162</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3048,10 +3045,10 @@
         <v>1990</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D116" s="2" t="b">
         <v>0</v>
@@ -3060,7 +3057,7 @@
         <v>5212</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3068,10 +3065,10 @@
         <v>1990</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D117" s="2" t="b">
         <v>0</v>
@@ -3080,7 +3077,7 @@
         <v>4481</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3088,10 +3085,10 @@
         <v>1990</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D118" s="2" t="b">
         <v>0</v>
@@ -3100,7 +3097,7 @@
         <v>4429</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3108,10 +3105,10 @@
         <v>1990</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D119" s="2" t="b">
         <v>1</v>
@@ -3120,7 +3117,7 @@
         <v>5001</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3128,10 +3125,10 @@
         <v>1980</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D120" s="2" t="b">
         <v>0</v>
@@ -3140,7 +3137,7 @@
         <v>4621</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3148,10 +3145,10 @@
         <v>1990</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D121" s="2" t="b">
         <v>0</v>
@@ -3160,7 +3157,7 @@
         <v>5331</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3168,7 +3165,7 @@
         <v>2010</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D122" s="2" t="b">
         <v>0</v>
@@ -3177,7 +3174,7 @@
         <v>2853</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3185,7 +3182,7 @@
         <v>2010</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D123" s="2" t="b">
         <v>0</v>
@@ -3194,7 +3191,7 @@
         <v>2709</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3202,7 +3199,7 @@
         <v>2000</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D124" s="2" t="b">
         <v>0</v>
@@ -3211,7 +3208,7 @@
         <v>4233</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3219,7 +3216,7 @@
         <v>2010</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D125" s="2" t="b">
         <v>0</v>
@@ -3228,7 +3225,7 @@
         <v>4757</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3236,10 +3233,10 @@
         <v>1990</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D126" s="2" t="b">
         <v>0</v>
@@ -3248,7 +3245,7 @@
         <v>5803</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3256,10 +3253,10 @@
         <v>2000</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D127" s="2" t="b">
         <v>0</v>
@@ -3268,7 +3265,7 @@
         <v>4430</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3276,10 +3273,10 @@
         <v>1980</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D128" s="2" t="b">
         <v>0</v>
@@ -3288,7 +3285,7 @@
         <v>4039</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3296,7 +3293,7 @@
         <v>2010</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D129" s="2" t="b">
         <v>0</v>
@@ -3305,7 +3302,7 @@
         <v>3491</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3313,10 +3310,10 @@
         <v>2000</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D130" s="2" t="b">
         <v>1</v>
@@ -3325,7 +3322,7 @@
         <v>5905</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3333,7 +3330,7 @@
         <v>2000</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D131" s="2" t="b">
         <v>0</v>
@@ -3342,7 +3339,7 @@
         <v>6246</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,10 +3347,10 @@
         <v>1990</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D132" s="2" t="b">
         <v>0</v>
@@ -3362,7 +3359,7 @@
         <v>3612</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3370,10 +3367,10 @@
         <v>1990</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D133" s="2" t="b">
         <v>0</v>
@@ -3382,7 +3379,7 @@
         <v>4123</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3390,7 +3387,7 @@
         <v>2010</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D134" s="2" t="b">
         <v>0</v>
@@ -3399,7 +3396,7 @@
         <v>4097</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3407,7 +3404,7 @@
         <v>2000</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D135" s="2" t="b">
         <v>0</v>
@@ -3416,7 +3413,7 @@
         <v>3931</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3424,10 +3421,10 @@
         <v>1990</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D136" s="2" t="b">
         <v>0</v>
@@ -3436,7 +3433,7 @@
         <v>3974</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,7 +3441,7 @@
         <v>2010</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D137" s="2" t="b">
         <v>0</v>
@@ -3453,7 +3450,7 @@
         <v>4374</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3461,10 +3458,10 @@
         <v>2000</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D138" s="2" t="b">
         <v>0</v>
@@ -3473,7 +3470,7 @@
         <v>4151</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3481,10 +3478,10 @@
         <v>2000</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D139" s="2" t="b">
         <v>0</v>
@@ -3493,7 +3490,7 @@
         <v>4703</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3501,10 +3498,10 @@
         <v>2000</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D140" s="2" t="b">
         <v>0</v>
@@ -3513,7 +3510,7 @@
         <v>4830</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3521,10 +3518,10 @@
         <v>1990</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D141" s="2" t="b">
         <v>0</v>
@@ -3533,7 +3530,7 @@
         <v>4225</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3541,10 +3538,10 @@
         <v>1980</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D142" s="2" t="b">
         <v>0</v>
@@ -3553,7 +3550,7 @@
         <v>3391</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3561,7 +3558,7 @@
         <v>2010</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D143" s="2" t="b">
         <v>0</v>
@@ -3570,7 +3567,7 @@
         <v>3392</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3578,10 +3575,10 @@
         <v>1990</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D144" s="2" t="b">
         <v>0</v>
@@ -3590,7 +3587,7 @@
         <v>4635</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3598,7 +3595,7 @@
         <v>2000</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D145" s="2" t="b">
         <v>0</v>
@@ -3607,7 +3604,7 @@
         <v>3750</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3615,7 +3612,7 @@
         <v>2000</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D146" s="2" t="b">
         <v>0</v>
@@ -3629,10 +3626,10 @@
         <v>2000</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D147" s="2" t="b">
         <v>0</v>
@@ -3641,7 +3638,7 @@
         <v>4705</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3649,10 +3646,10 @@
         <v>2010</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D148" s="2" t="b">
         <v>0</v>
@@ -3661,7 +3658,7 @@
         <v>4601</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3669,7 +3666,7 @@
         <v>2010</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D149" s="2" t="b">
         <v>0</v>
@@ -3678,7 +3675,7 @@
         <v>4431</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3686,10 +3683,10 @@
         <v>1990</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D150" s="2" t="b">
         <v>0</v>
@@ -3698,7 +3695,7 @@
         <v>4011</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3706,7 +3703,7 @@
         <v>2010</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D151" s="2" t="b">
         <v>0</v>
@@ -3715,7 +3712,7 @@
         <v>3883</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3723,10 +3720,10 @@
         <v>2010</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D152" s="2" t="b">
         <v>0</v>
@@ -3735,7 +3732,7 @@
         <v>4896</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3743,7 +3740,7 @@
         <v>2010</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D153" s="2" t="b">
         <v>0</v>
@@ -3752,7 +3749,7 @@
         <v>5651</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3760,10 +3757,10 @@
         <v>2010</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D154" s="2" t="b">
         <v>0</v>
@@ -3772,7 +3769,7 @@
         <v>3707</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3780,10 +3777,10 @@
         <v>1990</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D155" s="2" t="b">
         <v>0</v>
@@ -3792,7 +3789,7 @@
         <v>5895</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3800,10 +3797,10 @@
         <v>2000</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D156" s="2" t="b">
         <v>0</v>
@@ -3812,7 +3809,7 @@
         <v>4982</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3820,7 +3817,7 @@
         <v>2010</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D157" s="2" t="b">
         <v>0</v>
@@ -3829,7 +3826,7 @@
         <v>3029</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3837,7 +3834,7 @@
         <v>2010</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D158" s="2" t="b">
         <v>0</v>
@@ -3846,7 +3843,7 @@
         <v>2724</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3854,10 +3851,10 @@
         <v>2000</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D159" s="2" t="b">
         <v>0</v>
@@ -3866,7 +3863,7 @@
         <v>3650</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3874,7 +3871,7 @@
         <v>2010</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D160" s="2" t="b">
         <v>0</v>
@@ -3883,7 +3880,7 @@
         <v>3395</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
